--- a/Multiknapsack/results/fixed_recourse/singlecut/M50_N200_T0_a75_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/singlecut/M50_N200_T0_a75_ccg.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>instance</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Status</t>
   </si>
   <si>
+    <t>num cuts</t>
+  </si>
+  <si>
     <t>num variables</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
   </si>
   <si>
     <t>MP gap</t>
+  </si>
+  <si>
+    <t>MP solve time</t>
   </si>
   <si>
     <t>Worst violation</t>
@@ -425,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,265 +462,66 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-2322.694092668502</v>
+        <v>-636.8209952746665</v>
       </c>
       <c r="C2">
-        <v>8.604177019</v>
+        <v>13.453944639</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>752</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>605</v>
+        <v>2408</v>
       </c>
       <c r="H2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>2420</v>
+      </c>
+      <c r="I2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2337.8392020817273</v>
+        <v>-642.7018993795001</v>
       </c>
       <c r="C3">
-        <v>0.186683205</v>
+        <v>11.492630544</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>752</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>605</v>
+        <v>3512</v>
       </c>
       <c r="H3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>-2333.772812370712</v>
-      </c>
-      <c r="C4">
-        <v>0.181322963</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>752</v>
-      </c>
-      <c r="G4">
-        <v>605</v>
-      </c>
-      <c r="H4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>-2353.0765632889825</v>
-      </c>
-      <c r="C5">
-        <v>0.224977177</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>752</v>
-      </c>
-      <c r="G5">
-        <v>605</v>
-      </c>
-      <c r="H5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-2313.7965928692865</v>
-      </c>
-      <c r="C6">
-        <v>0.184285987</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>752</v>
-      </c>
-      <c r="G6">
-        <v>605</v>
-      </c>
-      <c r="H6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>-2300.066508787149</v>
-      </c>
-      <c r="C7">
-        <v>0.170942303</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7">
-        <v>752</v>
-      </c>
-      <c r="G7">
-        <v>605</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>-2319.878223172007</v>
-      </c>
-      <c r="C8">
-        <v>0.181246722</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <v>752</v>
-      </c>
-      <c r="G8">
-        <v>605</v>
-      </c>
-      <c r="H8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>-2307.6882640570348</v>
-      </c>
-      <c r="C9">
-        <v>0.164501355</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>752</v>
-      </c>
-      <c r="G9">
-        <v>605</v>
-      </c>
-      <c r="H9">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>-2321.713305378598</v>
-      </c>
-      <c r="C10">
-        <v>0.194898246</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>752</v>
-      </c>
-      <c r="G10">
-        <v>605</v>
-      </c>
-      <c r="H10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>-2350.7827831921604</v>
-      </c>
-      <c r="C11">
-        <v>0.211526078</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11">
-        <v>752</v>
-      </c>
-      <c r="G11">
-        <v>605</v>
-      </c>
-      <c r="H11">
-        <v>50</v>
+        <v>3630</v>
+      </c>
+      <c r="I3">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -724,52 +531,27 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-3000.555483233142</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>28.45132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2321.713305378598</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -779,52 +561,27 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-3032.451880723887</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>26.89235</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2350.7827831921604</v>
-      </c>
-      <c r="C3">
-        <v>5.803352238299156e-14</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -834,27 +591,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,20 +625,77 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>27.24452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.8881707532993164</v>
+      </c>
+      <c r="E2">
+        <v>354.17872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2322.694092668502</v>
+        <v>-646.4825114159808</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>1.0127392353468017</v>
+      </c>
+      <c r="E3">
+        <v>5.11317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-637.9410440724316</v>
+      </c>
+      <c r="C4">
+        <v>0.07887943349767003</v>
+      </c>
+      <c r="D4">
+        <v>1.5313195949906007</v>
+      </c>
+      <c r="E4">
+        <v>2.56635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-637.3312460943409</v>
+      </c>
+      <c r="C5">
+        <v>0.0</v>
+      </c>
+      <c r="D5">
+        <v>0.6921891536879883</v>
+      </c>
+      <c r="E5">
+        <v>1.61745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-636.8209952746665</v>
+      </c>
+      <c r="C6">
+        <v>0.09346824871592385</v>
+      </c>
+      <c r="D6">
+        <v>1.1349636870164794</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
     </row>
@@ -889,27 +706,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,20 +740,111 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>26.69371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03442068413171387</v>
+      </c>
+      <c r="E2">
+        <v>347.01821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-2337.8392020817273</v>
+        <v>-648.9829057779912</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
+        <v>1.4437955331556396</v>
+      </c>
+      <c r="E3">
+        <v>2.75625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>-645.8652098584993</v>
+      </c>
+      <c r="C4">
+        <v>0.06878239580476256</v>
+      </c>
+      <c r="D4">
+        <v>1.9913594624937745</v>
+      </c>
+      <c r="E4">
+        <v>2.42402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>-644.4114246071601</v>
+      </c>
+      <c r="C5">
+        <v>0.03749244280126562</v>
+      </c>
+      <c r="D5">
+        <v>1.076119384918579</v>
+      </c>
+      <c r="E5">
+        <v>1.06741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-643.8855741141637</v>
+      </c>
+      <c r="C6">
+        <v>0.08423160064513807</v>
+      </c>
+      <c r="D6">
+        <v>1.575565827519165</v>
+      </c>
+      <c r="E6">
+        <v>1.494</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-642.9296220255005</v>
+      </c>
+      <c r="C7">
+        <v>0.09183474214760089</v>
+      </c>
+      <c r="D7">
+        <v>2.3396030233950196</v>
+      </c>
+      <c r="E7">
+        <v>0.89271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-642.7018993795001</v>
+      </c>
+      <c r="C8">
+        <v>0.0922612769763909</v>
+      </c>
+      <c r="D8">
+        <v>2.2796718589920655</v>
+      </c>
+      <c r="E8">
         <v>0.0</v>
       </c>
     </row>
@@ -944,52 +855,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-3023.526670927522</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>27.09169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2333.772812370712</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -999,52 +885,27 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-3037.2869789741726</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>27.08888</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2353.0765632889825</v>
-      </c>
-      <c r="C3">
-        <v>7.730260170554375e-14</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1054,52 +915,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-2986.328185113623</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>27.00972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2313.7965928692865</v>
-      </c>
-      <c r="C3">
-        <v>1.9653730681767604e-14</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1109,52 +945,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-2962.999318535765</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>26.71919</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2300.066508787149</v>
-      </c>
-      <c r="C3">
-        <v>0.0</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1164,52 +975,27 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-2994.412496767684</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>26.66429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2319.878223172007</v>
-      </c>
-      <c r="C3">
-        <v>3.920441567529015e-14</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1219,52 +1005,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-2984.3463447111662</v>
-      </c>
-      <c r="C2">
-        <v>0.0</v>
-      </c>
-      <c r="D2">
-        <v>27.05004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>-2307.6882640570348</v>
-      </c>
-      <c r="C3">
-        <v>1.9705753067659805e-14</v>
-      </c>
-      <c r="D3">
-        <v>0.0</v>
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
